--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="mncounty_internet2014" sheetId="1" r:id="rId1"/>
+    <sheet name="mnCountyInternet2014" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>county</t>
   </si>
@@ -298,14 +299,47 @@
     <t>Yellow Medicine</t>
   </si>
   <si>
-    <t>Source: Minnesota Department of Employment and Economic Development</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>mnCountyInternet2014</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Department of Employment and Economic Development (DEED)</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Employment and Economic Development (DEED)</t>
+  </si>
+  <si>
+    <t>Wireline broadband Internet availability by Minnesota county, comparing 2012 to 2014</t>
+  </si>
+  <si>
+    <t>Minnesota county</t>
+  </si>
+  <si>
+    <t>Household density rate</t>
+  </si>
+  <si>
+    <t>Number of households</t>
+  </si>
+  <si>
+    <t>Percent of households with high-speed broadband in 2014</t>
+  </si>
+  <si>
+    <t>Percent of households with high-speed broadband in 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,6 +353,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,10 +390,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -350,8 +406,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -707,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -741,7 +802,7 @@
         <v>91.19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -758,7 +819,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,7 +836,7 @@
         <v>97.61</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +853,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -809,7 +870,7 @@
         <v>71.98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -826,7 +887,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -843,7 +904,7 @@
         <v>85.36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -860,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -877,7 +938,7 @@
         <v>74.709999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -894,7 +955,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -911,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -928,7 +989,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -945,7 +1006,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -962,7 +1023,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -979,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1074,7 @@
         <v>25.38</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1091,7 @@
         <v>64.069999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1108,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1125,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1142,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1159,7 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1176,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1193,7 @@
         <v>58.84</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1210,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +1227,7 @@
         <v>98.14</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1244,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1200,7 +1261,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1217,7 +1278,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1234,7 +1295,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +1312,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1285,7 +1346,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1363,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1319,7 +1380,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1397,7 @@
         <v>68.959999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1353,7 +1414,7 @@
         <v>50.19</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1370,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1387,7 +1448,7 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1465,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1482,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1455,7 +1516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1472,7 +1533,7 @@
         <v>59.24</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1550,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +1567,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1523,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1540,7 +1601,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="15">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1618,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1574,7 +1635,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1591,7 +1652,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1669,7 @@
         <v>48.89</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1686,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -1642,7 +1703,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="15">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -1659,7 +1720,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="15">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1676,7 +1737,7 @@
         <v>74.08</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="15">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -1693,7 +1754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="15">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1710,7 +1771,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="15">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -1727,7 +1788,7 @@
         <v>58.29</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1744,7 +1805,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -1761,7 +1822,7 @@
         <v>99.46</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1778,7 +1839,7 @@
         <v>35.409999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1795,7 +1856,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -1812,7 +1873,7 @@
         <v>50.75</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1829,7 +1890,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -1846,7 +1907,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -1863,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -1880,7 +1941,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -1897,7 +1958,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1914,7 +1975,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1992,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +2009,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -1965,7 +2026,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -1982,7 +2043,7 @@
         <v>99.22</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -1999,7 +2060,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -2016,7 +2077,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2094,7 @@
         <v>66.069999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="15">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -2050,7 +2111,7 @@
         <v>57.62</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="15">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -2067,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -2084,7 +2145,7 @@
         <v>61.79</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
@@ -2101,7 +2162,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="15">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
@@ -2118,7 +2179,7 @@
         <v>63.91</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="15">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -2135,7 +2196,7 @@
         <v>58.19</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -2152,7 +2213,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="15">
       <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
@@ -2169,7 +2230,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="15">
       <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
@@ -2184,6 +2245,63 @@
       </c>
       <c r="E88" s="5">
         <v>19.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2196,28 +2314,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2014</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
